--- a/NformTester/NformTester/Keywordscripts/600.40.10.30_InvokedAndRevokedEditDeviceDefinition.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.10.30_InvokedAndRevokedEditDeviceDefinition.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7766" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7774" uniqueCount="857">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4106,7 +4106,35 @@
     <cellStyle name="常规 2 3" xfId="4"/>
     <cellStyle name="常规 2 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4831,10 +4859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O230"/>
+  <dimension ref="A1:O232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5047,7 +5075,7 @@
         <v>759</v>
       </c>
       <c r="B7" s="3">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -8524,69 +8552,67 @@
       <c r="M134" s="4"/>
       <c r="N134" s="12"/>
     </row>
-    <row r="135" spans="3:14" ht="15">
+    <row r="135" spans="3:14">
       <c r="C135" s="4">
         <v>134</v>
       </c>
-      <c r="D135" s="15" t="s">
-        <v>821</v>
-      </c>
-      <c r="E135" s="19"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="D135" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
       <c r="K135" s="20"/>
       <c r="L135" s="20"/>
       <c r="M135" s="4"/>
+      <c r="N135" s="12"/>
     </row>
     <row r="136" spans="3:14">
       <c r="C136" s="4">
         <v>135</v>
       </c>
-      <c r="D136" s="18" t="s">
-        <v>831</v>
+      <c r="D136" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E136" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F136" s="19" t="s">
-        <v>70</v>
+      <c r="F136" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="G136" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H136" s="19"/>
+      <c r="H136" s="22"/>
       <c r="I136" s="4"/>
-      <c r="J136" s="20"/>
+      <c r="J136" s="4"/>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
-      <c r="M136" s="4"/>
-    </row>
-    <row r="137" spans="3:14">
+      <c r="M136" s="20"/>
+      <c r="N136" s="12"/>
+    </row>
+    <row r="137" spans="3:14" ht="15">
       <c r="C137" s="4">
         <v>136</v>
       </c>
-      <c r="D137" s="21" t="s">
-        <v>832</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>796</v>
-      </c>
+      <c r="D137" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="E137" s="19"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="20"/>
       <c r="K137" s="20"/>
       <c r="L137" s="20"/>
       <c r="M137" s="4"/>
@@ -8595,23 +8621,23 @@
       <c r="C138" s="4">
         <v>137</v>
       </c>
-      <c r="D138" s="21" t="s">
-        <v>826</v>
+      <c r="D138" s="18" t="s">
+        <v>831</v>
       </c>
       <c r="E138" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>797</v>
+        <v>70</v>
       </c>
       <c r="G138" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
+      <c r="J138" s="20"/>
+      <c r="K138" s="20"/>
+      <c r="L138" s="20"/>
       <c r="M138" s="4"/>
     </row>
     <row r="139" spans="3:14">
@@ -8619,43 +8645,45 @@
         <v>138</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>786</v>
-      </c>
-      <c r="E139" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G139" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
+        <v>832</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="K139" s="20"/>
+      <c r="L139" s="20"/>
       <c r="M139" s="4"/>
     </row>
     <row r="140" spans="3:14">
       <c r="C140" s="4">
         <v>139</v>
       </c>
-      <c r="D140" s="18" t="s">
-        <v>815</v>
+      <c r="D140" s="21" t="s">
+        <v>826</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>829</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F140" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="G140" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H140" s="19"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
@@ -8666,19 +8694,19 @@
       <c r="C141" s="4">
         <v>140</v>
       </c>
-      <c r="D141" s="18" t="s">
-        <v>815</v>
+      <c r="D141" s="21" t="s">
+        <v>786</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="G141" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H141" s="4"/>
+      <c r="H141" s="19"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
@@ -8702,7 +8730,7 @@
         <v>56</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
@@ -8744,12 +8772,14 @@
         <v>235</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H144" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>830</v>
+      </c>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
@@ -8760,19 +8790,19 @@
       <c r="C145" s="4">
         <v>144</v>
       </c>
-      <c r="D145" s="21" t="s">
-        <v>786</v>
+      <c r="D145" s="18" t="s">
+        <v>815</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H145" s="19"/>
+        <v>235</v>
+      </c>
+      <c r="F145" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
@@ -8783,19 +8813,19 @@
       <c r="C146" s="4">
         <v>145</v>
       </c>
-      <c r="D146" s="21" t="s">
-        <v>786</v>
+      <c r="D146" s="18" t="s">
+        <v>815</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G146" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H146" s="19"/>
+        <v>235</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H146" s="14"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
@@ -8810,24 +8840,22 @@
         <v>786</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>572</v>
+        <v>19</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>573</v>
+        <v>22</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H147" s="20" t="s">
-        <v>849</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H147" s="19"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
     </row>
-    <row r="148" spans="3:13" ht="14.25">
+    <row r="148" spans="3:13">
       <c r="C148" s="4">
         <v>147</v>
       </c>
@@ -8835,15 +8863,15 @@
         <v>786</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>572</v>
+        <v>19</v>
       </c>
       <c r="F148" s="20" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="G148" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H148" s="23"/>
+      <c r="H148" s="19"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -8857,23 +8885,25 @@
       <c r="D149" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="E149" s="20" t="s">
-        <v>578</v>
+      <c r="E149" s="19" t="s">
+        <v>572</v>
       </c>
       <c r="F149" s="20" t="s">
-        <v>194</v>
+        <v>573</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H149" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="H149" s="20" t="s">
+        <v>849</v>
+      </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
     </row>
-    <row r="150" spans="3:13">
+    <row r="150" spans="3:13" ht="14.25">
       <c r="C150" s="4">
         <v>149</v>
       </c>
@@ -8884,12 +8914,12 @@
         <v>572</v>
       </c>
       <c r="F150" s="20" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="G150" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H150" s="19"/>
+      <c r="H150" s="23"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
@@ -8900,10 +8930,18 @@
       <c r="C151" s="4">
         <v>150</v>
       </c>
-      <c r="D151" s="18"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
+      <c r="D151" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="E151" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="F151" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G151" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="H151" s="19"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -8912,11 +8950,21 @@
       <c r="M151" s="4"/>
     </row>
     <row r="152" spans="3:13">
-      <c r="C152" s="4"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
+      <c r="C152" s="4">
+        <v>151</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="F152" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G152" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="H152" s="19"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
@@ -8925,11 +8973,13 @@
       <c r="M152" s="4"/>
     </row>
     <row r="153" spans="3:13">
-      <c r="C153" s="4"/>
+      <c r="C153" s="4">
+        <v>152</v>
+      </c>
       <c r="D153" s="18"/>
       <c r="E153" s="19"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
       <c r="H153" s="19"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -9361,6 +9411,7 @@
       <c r="G186" s="4"/>
       <c r="H186" s="19"/>
       <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
       <c r="M186" s="4"/>
@@ -9373,6 +9424,7 @@
       <c r="G187" s="4"/>
       <c r="H187" s="19"/>
       <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
       <c r="M187" s="4"/>
@@ -9385,6 +9437,7 @@
       <c r="G188" s="4"/>
       <c r="H188" s="19"/>
       <c r="I188" s="4"/>
+      <c r="K188" s="4"/>
       <c r="L188" s="4"/>
       <c r="M188" s="4"/>
     </row>
@@ -9396,16 +9449,29 @@
       <c r="G189" s="4"/>
       <c r="H189" s="19"/>
       <c r="I189" s="4"/>
+      <c r="K189" s="4"/>
       <c r="L189" s="4"/>
       <c r="M189" s="4"/>
     </row>
     <row r="190" spans="3:13">
       <c r="C190" s="4"/>
+      <c r="D190" s="18"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="4"/>
       <c r="L190" s="4"/>
       <c r="M190" s="4"/>
     </row>
     <row r="191" spans="3:13">
       <c r="C191" s="4"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="4"/>
       <c r="L191" s="4"/>
       <c r="M191" s="4"/>
     </row>
@@ -9422,10 +9488,12 @@
     <row r="194" spans="3:13">
       <c r="C194" s="4"/>
       <c r="L194" s="4"/>
+      <c r="M194" s="4"/>
     </row>
     <row r="195" spans="3:13">
       <c r="C195" s="4"/>
       <c r="L195" s="4"/>
+      <c r="M195" s="4"/>
     </row>
     <row r="196" spans="3:13">
       <c r="C196" s="4"/>
@@ -9479,52 +9547,54 @@
       <c r="C208" s="4"/>
       <c r="L208" s="4"/>
     </row>
-    <row r="209" spans="3:3">
+    <row r="209" spans="3:12">
       <c r="C209" s="4"/>
-    </row>
-    <row r="210" spans="3:3">
+      <c r="L209" s="4"/>
+    </row>
+    <row r="210" spans="3:12">
       <c r="C210" s="4"/>
-    </row>
-    <row r="211" spans="3:3">
+      <c r="L210" s="4"/>
+    </row>
+    <row r="211" spans="3:12">
       <c r="C211" s="4"/>
     </row>
-    <row r="212" spans="3:3">
+    <row r="212" spans="3:12">
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="3:3">
+    <row r="213" spans="3:12">
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="3:3">
+    <row r="214" spans="3:12">
       <c r="C214" s="4"/>
     </row>
-    <row r="215" spans="3:3">
+    <row r="215" spans="3:12">
       <c r="C215" s="4"/>
     </row>
-    <row r="216" spans="3:3">
+    <row r="216" spans="3:12">
       <c r="C216" s="4"/>
     </row>
-    <row r="217" spans="3:3">
+    <row r="217" spans="3:12">
       <c r="C217" s="4"/>
     </row>
-    <row r="218" spans="3:3">
+    <row r="218" spans="3:12">
       <c r="C218" s="4"/>
     </row>
-    <row r="219" spans="3:3">
+    <row r="219" spans="3:12">
       <c r="C219" s="4"/>
     </row>
-    <row r="220" spans="3:3">
+    <row r="220" spans="3:12">
       <c r="C220" s="4"/>
     </row>
-    <row r="221" spans="3:3">
+    <row r="221" spans="3:12">
       <c r="C221" s="4"/>
     </row>
-    <row r="222" spans="3:3">
+    <row r="222" spans="3:12">
       <c r="C222" s="4"/>
     </row>
-    <row r="223" spans="3:3">
+    <row r="223" spans="3:12">
       <c r="C223" s="4"/>
     </row>
-    <row r="224" spans="3:3">
+    <row r="224" spans="3:12">
       <c r="C224" s="4"/>
     </row>
     <row r="225" spans="3:3">
@@ -9545,27 +9615,33 @@
     <row r="230" spans="3:3">
       <c r="C230" s="4"/>
     </row>
+    <row r="231" spans="3:3">
+      <c r="C231" s="4"/>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N134">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N136">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F151:F189 F3:F144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F153:F191 F3:F146">
       <formula1>OFFSET(INDIRECT($E3),0,0,COUNTA(INDIRECT(E3&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D137:D144 D151">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D139:D146 D153">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G151:G189 G3:G144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G153:G191 G3:G146">
       <formula1>INDIRECT(SUBSTITUTE(E3&amp;F3," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E151:E189 E3:E144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E153:E191 E3:E146">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.40.10.30_InvokedAndRevokedEditDeviceDefinition.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.10.30_InvokedAndRevokedEditDeviceDefinition.xlsx
@@ -3810,10 +3810,6 @@
     <t>Configure_devices</t>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Equal</t>
   </si>
   <si>
@@ -3856,6 +3852,10 @@
   </si>
   <si>
     <t>"testzoe2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4106,35 +4106,7 @@
     <cellStyle name="常规 2 3" xfId="4"/>
     <cellStyle name="常规 2 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4861,8 +4833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7189,19 +7161,19 @@
         <v>81</v>
       </c>
       <c r="D82" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="E82" s="19" t="s">
         <v>852</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="F82" s="19" t="s">
         <v>853</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>854</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>241</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -7254,7 +7226,7 @@
         <v>827</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J84" s="20" t="b">
         <v>1</v>
@@ -7305,7 +7277,7 @@
         <v>4</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -7352,10 +7324,10 @@
         <v>104</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -7417,10 +7389,10 @@
         <v>90</v>
       </c>
       <c r="D91" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="E91" s="19" t="s">
         <v>852</v>
-      </c>
-      <c r="E91" s="19" t="s">
-        <v>853</v>
       </c>
       <c r="F91" s="20" t="s">
         <v>95</v>
@@ -8021,7 +7993,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="20"/>
@@ -8100,7 +8072,7 @@
         <v>801</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J116" s="4" t="s">
         <v>796</v>
@@ -8163,19 +8135,19 @@
         <v>118</v>
       </c>
       <c r="D119" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="E119" s="19" t="s">
         <v>852</v>
       </c>
-      <c r="E119" s="19" t="s">
+      <c r="F119" s="19" t="s">
         <v>853</v>
-      </c>
-      <c r="F119" s="19" t="s">
-        <v>854</v>
       </c>
       <c r="G119" s="19" t="s">
         <v>241</v>
       </c>
       <c r="H119" s="20" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -8228,7 +8200,7 @@
         <v>827</v>
       </c>
       <c r="I121" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J121" s="20" t="b">
         <v>1</v>
@@ -8279,7 +8251,7 @@
         <v>4</v>
       </c>
       <c r="H123" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -8326,10 +8298,10 @@
         <v>104</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -8391,10 +8363,10 @@
         <v>127</v>
       </c>
       <c r="D128" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="E128" s="19" t="s">
         <v>852</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>853</v>
       </c>
       <c r="F128" s="20" t="s">
         <v>95</v>
@@ -8415,7 +8387,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="20"/>
@@ -8494,7 +8466,7 @@
         <v>818</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J132" s="4" t="s">
         <v>796</v>
@@ -8895,7 +8867,7 @@
         <v>3</v>
       </c>
       <c r="H149" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -9624,10 +9596,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N136">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
